--- a/Satellite Sites.xlsx
+++ b/Satellite Sites.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="446" uniqueCount="353">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="454" uniqueCount="361">
   <si>
     <t>Northwest</t>
   </si>
@@ -1560,6 +1560,198 @@
   </si>
   <si>
     <t>"http://weather.gc.ca/data/satellite/hrpt_ykn_nir_100.jpg"</t>
+  </si>
+  <si>
+    <t>Southern Ontario</t>
+  </si>
+  <si>
+    <r>
+      <t>"http://www.ssd.noaa.gov/goes/east/gl/img/" + "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>YYYYDDD</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>hhmmoption</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.jpg"</t>
+    </r>
+  </si>
+  <si>
+    <t>Southern Quebec</t>
+  </si>
+  <si>
+    <t>Southern Western Canada</t>
+  </si>
+  <si>
+    <t>Southern Prairies</t>
+  </si>
+  <si>
+    <r>
+      <t>"http://www.ssd.noaa.gov/goes/east/ne/img/ + "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>YYYYDDD</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>hhmmoption</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.jpg"</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>"http://www.ssd.noaa.gov/goes/east/np/img/ + "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>YYYYDDD</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>hhmmoption</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.jpg"</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>"http://www.ssd.noaa.gov/goes/west/nw/img/ + "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>YYYYDDD</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>hhmmoption</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.jpg"</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -1897,7 +2089,7 @@
   <dimension ref="A1:E139"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3398,10 +3590,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L20"/>
+  <dimension ref="A1:L22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K20" sqref="K20"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3468,6 +3660,12 @@
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>353</v>
+      </c>
+      <c r="B6" t="s">
+        <v>354</v>
+      </c>
       <c r="K6" t="s">
         <v>319</v>
       </c>
@@ -3475,110 +3673,135 @@
         <v>317</v>
       </c>
     </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>355</v>
+      </c>
+      <c r="B7" t="s">
+        <v>358</v>
+      </c>
+    </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
+        <v>356</v>
+      </c>
+      <c r="B8" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>357</v>
+      </c>
+      <c r="B9" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
         <v>333</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B10" t="s">
         <v>341</v>
       </c>
-      <c r="K8" t="s">
+      <c r="K10" t="s">
         <v>320</v>
       </c>
-      <c r="L8" s="1" t="s">
+      <c r="L10" s="1" t="s">
         <v>334</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B9" s="2" t="s">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B11" s="2" t="s">
         <v>336</v>
       </c>
-      <c r="K9" t="s">
+      <c r="K11" t="s">
         <v>319</v>
       </c>
-      <c r="L9" s="1" t="s">
+      <c r="L11" s="1" t="s">
         <v>335</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
         <v>330</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>331</v>
-      </c>
-      <c r="B12" t="s">
-        <v>340</v>
-      </c>
-      <c r="K12" t="s">
-        <v>332</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>337</v>
-      </c>
-      <c r="B15" t="s">
-        <v>339</v>
-      </c>
-      <c r="K15" t="s">
-        <v>320</v>
-      </c>
-      <c r="L15" s="1">
-        <v>1070</v>
+        <v>331</v>
+      </c>
+      <c r="B14" t="s">
+        <v>340</v>
+      </c>
+      <c r="K14" t="s">
+        <v>332</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>337</v>
+      </c>
+      <c r="B17" t="s">
+        <v>339</v>
+      </c>
+      <c r="K17" t="s">
+        <v>320</v>
+      </c>
+      <c r="L17" s="1">
+        <v>1070</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
         <v>346</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B18" t="s">
         <v>349</v>
       </c>
-      <c r="K16" t="s">
+      <c r="K18" t="s">
         <v>319</v>
       </c>
-      <c r="L16" s="1" t="s">
+      <c r="L18" s="1" t="s">
         <v>338</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B17" s="2" t="s">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B19" s="2" t="s">
         <v>347</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
         <v>348</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B20" t="s">
         <v>350</v>
       </c>
-      <c r="K18" t="s">
+      <c r="K20" t="s">
         <v>320</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B19" t="s">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B21" t="s">
         <v>352</v>
       </c>
-      <c r="K19" t="s">
+      <c r="K21" t="s">
         <v>319</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B20" s="2" t="s">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B22" s="2" t="s">
         <v>351</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Satellite Sites.xlsx
+++ b/Satellite Sites.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f2b5f44ce49b671e/Ashwin/Visual Studio/Sat/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Daniel\SkyDrive\Ashwin\Visual Studio\Sat\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="454" uniqueCount="361">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="478" uniqueCount="377">
   <si>
     <t>Northwest</t>
   </si>
@@ -960,9 +960,6 @@
     <t>Northern Great Lakes</t>
   </si>
   <si>
-    <t>Central Canada</t>
-  </si>
-  <si>
     <t>Western USA</t>
   </si>
   <si>
@@ -1011,15 +1008,6 @@
     <t>Central BC</t>
   </si>
   <si>
-    <t>NOAA</t>
-  </si>
-  <si>
-    <t>Environment Canada</t>
-  </si>
-  <si>
-    <t>University of Washington</t>
-  </si>
-  <si>
     <t>Western Canada/USA</t>
   </si>
   <si>
@@ -1035,12 +1023,6 @@
     <t>alvs</t>
   </si>
   <si>
-    <t>Image # goes from 1-10, where 10 is most recent. Images are taken every 30min</t>
-  </si>
-  <si>
-    <t>Western Canada</t>
-  </si>
-  <si>
     <t>visible</t>
   </si>
   <si>
@@ -1240,6 +1222,404 @@
   </si>
   <si>
     <r>
+      <t>"http://www.ssd.noaa.gov/goes/west/vanc/img/" + "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>YYYYDDD</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>hhmmoption</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">.jpg" </t>
+    </r>
+  </si>
+  <si>
+    <t>Yukon</t>
+  </si>
+  <si>
+    <r>
+      <t>"http://weather.gc.ca//data/satellite/goes_ecan_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>option</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>_m_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>YYYY</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>@</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>MM</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>@</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>DD</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>hh</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>h</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>mm</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>m.jpg"</t>
+    </r>
+  </si>
+  <si>
+    <t>NO LOOP</t>
+  </si>
+  <si>
+    <t>Southern Ontario</t>
+  </si>
+  <si>
+    <r>
+      <t>"http://www.ssd.noaa.gov/goes/east/gl/img/" + "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>YYYYDDD</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>hhmmoption</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.jpg"</t>
+    </r>
+  </si>
+  <si>
+    <t>Southern Quebec</t>
+  </si>
+  <si>
+    <r>
+      <t>"http://www.ssd.noaa.gov/goes/east/ne/img/ + "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>YYYYDDD</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>hhmmoption</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.jpg"</t>
+    </r>
+  </si>
+  <si>
+    <t>Rainbow</t>
+  </si>
+  <si>
+    <t>rb</t>
+  </si>
+  <si>
+    <t>Image # goes from 1-10, where 10 is most recent. Images are taken every 30min. No 6h option.</t>
+  </si>
+  <si>
+    <t>Toronto</t>
+  </si>
+  <si>
+    <t>Thunder Bay</t>
+  </si>
+  <si>
+    <t>Sault Ste. Marie</t>
+  </si>
+  <si>
+    <t>St. John</t>
+  </si>
+  <si>
+    <t>Cities</t>
+  </si>
+  <si>
+    <t>Yukon (Polar)</t>
+  </si>
+  <si>
+    <t>Prairies/Central Canada</t>
+  </si>
+  <si>
+    <t>Eastern Canada/USA</t>
+  </si>
+  <si>
+    <t>NWT/Nunavut (Polar)</t>
+  </si>
+  <si>
+    <t>Hudson Bay (Polar)</t>
+  </si>
+  <si>
+    <r>
+      <t>"http://weather.gc.ca/data/satellite/hrpt_ykn_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>option</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>_100.jpg"</t>
+    </r>
+  </si>
+  <si>
+    <t>03</t>
+  </si>
+  <si>
+    <t>nir</t>
+  </si>
+  <si>
+    <t>ir</t>
+  </si>
+  <si>
+    <r>
+      <t>"http://weather.gc.ca/data/satellite/hrpt_wel_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>option</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>_100.jpg"</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>"http://weather.gc.ca/data/satellite/hrpt_hsb_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>option</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>_100.jpg"</t>
+    </r>
+  </si>
+  <si>
+    <t>No rgb or rb.</t>
+  </si>
+  <si>
+    <r>
       <t>"http://www.ssd.noaa.gov/goes/east/ff1/img/" + "</t>
     </r>
     <r>
@@ -1280,7 +1660,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>.jpg" "</t>
+      <t>.jpg"</t>
     </r>
   </si>
   <si>
@@ -1325,7 +1705,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>.jpg" "</t>
+      <t>.jpg"</t>
     </r>
   </si>
   <si>
@@ -1370,12 +1750,12 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">.jpg" " </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>"http://www.ssd.noaa.gov/goes/west/vanc/img/" + "</t>
+      <t>.jpg"</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>"http://www.ssd.noaa.gov/goes/east/wfo/buf/img/" + "</t>
     </r>
     <r>
       <rPr>
@@ -1385,7 +1765,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>YYYYDDD</t>
+      <t>YYYYDDD_hhmmoption</t>
     </r>
     <r>
       <rPr>
@@ -1395,7 +1775,12 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>_</t>
+      <t xml:space="preserve">.jpg" </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>"http://www.ssd.noaa.gov/goes/east/wfo/dlh/img/" + "</t>
     </r>
     <r>
       <rPr>
@@ -1405,7 +1790,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>hhmmoption</t>
+      <t>YYYYDDD_hhmmoption</t>
     </r>
     <r>
       <rPr>
@@ -1419,17 +1804,8 @@
     </r>
   </si>
   <si>
-    <t>Eastern Canada</t>
-  </si>
-  <si>
-    <t>Western Canada images occur at 00m and 30m. Eastern Canada images occur at 15m and 45m.</t>
-  </si>
-  <si>
-    <t>Yukon</t>
-  </si>
-  <si>
-    <r>
-      <t>"http://weather.gc.ca//data/satellite/goes_ecan_</t>
+    <r>
+      <t>"http://www.ssd.noaa.gov/goes/east/wfo/car/img/" + "</t>
     </r>
     <r>
       <rPr>
@@ -1439,7 +1815,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>option</t>
+      <t>YYYYDDD_hhmmoption</t>
     </r>
     <r>
       <rPr>
@@ -1449,7 +1825,12 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>_m_</t>
+      <t xml:space="preserve">.jpg" </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>"http://www.ssd.noaa.gov/goes/east/wfo/apx/img/" + "</t>
     </r>
     <r>
       <rPr>
@@ -1459,7 +1840,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>YYYY</t>
+      <t>YYYYDDD_hhmmoption</t>
     </r>
     <r>
       <rPr>
@@ -1469,7 +1850,12 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>@</t>
+      <t xml:space="preserve">.jpg" </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>"http://www.ssd.noaa.gov/goes/west/ak/img/" + "</t>
     </r>
     <r>
       <rPr>
@@ -1479,7 +1865,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>MM</t>
+      <t>YYYYDDD_hhmmoption</t>
     </r>
     <r>
       <rPr>
@@ -1489,7 +1875,12 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>@</t>
+      <t xml:space="preserve">.jpg" </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>"http://www.ssd.noaa.gov/goes/east/eaus/img/" + "</t>
     </r>
     <r>
       <rPr>
@@ -1499,7 +1890,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>DD</t>
+      <t>YYYYDDD_hhmmoption</t>
     </r>
     <r>
       <rPr>
@@ -1509,256 +1900,27 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>_</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>hh</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>h</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>mm</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>m.jpg"</t>
-    </r>
-  </si>
-  <si>
-    <t>"http://weather.gc.ca/data/satellite/hrpt_ykn_03_100.jpg"</t>
-  </si>
-  <si>
-    <t>NO LOOP</t>
-  </si>
-  <si>
-    <t>"http://weather.gc.ca/data/satellite/hrpt_ykn_nir_100.jpg"</t>
-  </si>
-  <si>
-    <t>Southern Ontario</t>
-  </si>
-  <si>
-    <r>
-      <t>"http://www.ssd.noaa.gov/goes/east/gl/img/" + "</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>YYYYDDD</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>_</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>hhmmoption</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>.jpg"</t>
-    </r>
-  </si>
-  <si>
-    <t>Southern Quebec</t>
-  </si>
-  <si>
-    <t>Southern Western Canada</t>
-  </si>
-  <si>
-    <t>Southern Prairies</t>
-  </si>
-  <si>
-    <r>
-      <t>"http://www.ssd.noaa.gov/goes/east/ne/img/ + "</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>YYYYDDD</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>_</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>hhmmoption</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>.jpg"</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>"http://www.ssd.noaa.gov/goes/east/np/img/ + "</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>YYYYDDD</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>_</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>hhmmoption</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>.jpg"</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>"http://www.ssd.noaa.gov/goes/west/nw/img/ + "</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>YYYYDDD</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>_</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>hhmmoption</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>.jpg"</t>
-    </r>
+      <t xml:space="preserve">.jpg" </t>
+    </r>
+  </si>
+  <si>
+    <t>Western Canada images occur at 00m and 30m. Eastern Canada images occur at 15m and 45m. Index NOT available.</t>
+  </si>
+  <si>
+    <t>Western Canada ?</t>
+  </si>
+  <si>
+    <t>Eastern Canada ?</t>
+  </si>
+  <si>
+    <t>Regions</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1775,6 +1937,14 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -1802,10 +1972,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2089,7 +2262,7 @@
   <dimension ref="A1:E139"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2104,7 +2277,7 @@
         <v>295</v>
       </c>
       <c r="B1" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -2123,21 +2296,21 @@
         <v>4</v>
       </c>
       <c r="D3" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B4" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="D4" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="E4" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -2148,10 +2321,10 @@
         <v>6</v>
       </c>
       <c r="D5" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="E5" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -2162,10 +2335,10 @@
         <v>174</v>
       </c>
       <c r="D6" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="E6" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -2176,10 +2349,10 @@
         <v>10</v>
       </c>
       <c r="D7" t="s">
+        <v>323</v>
+      </c>
+      <c r="E7" t="s">
         <v>324</v>
-      </c>
-      <c r="E7" t="s">
-        <v>325</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -2248,10 +2421,10 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B16" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
@@ -2259,7 +2432,7 @@
         <v>293</v>
       </c>
       <c r="B18" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
@@ -3590,218 +3763,308 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L22"/>
+  <dimension ref="A1:M28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="23.7109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="9.140625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1" s="1"/>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>351</v>
+      </c>
+      <c r="L2" s="4" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>349</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>370</v>
+      </c>
+      <c r="L3" s="4" t="s">
+        <v>319</v>
+      </c>
+      <c r="M3" s="5" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>350</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>369</v>
+      </c>
+      <c r="L4" s="4" t="s">
+        <v>344</v>
+      </c>
+      <c r="M4" s="5" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>348</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>368</v>
+      </c>
+      <c r="L5" s="4" t="s">
+        <v>323</v>
+      </c>
+      <c r="M5" s="5" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>347</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>367</v>
+      </c>
+      <c r="L6" s="4" t="s">
+        <v>318</v>
+      </c>
+      <c r="M6" s="5" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>309</v>
       </c>
-      <c r="B2" t="s">
-        <v>345</v>
-      </c>
-      <c r="K2" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>327</v>
-      </c>
-      <c r="B3" t="s">
-        <v>344</v>
-      </c>
-      <c r="K3" t="s">
-        <v>323</v>
-      </c>
-      <c r="L3" s="1" t="s">
+      <c r="B7" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
         <v>326</v>
       </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="B10" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
         <v>310</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B11" t="s">
+        <v>365</v>
+      </c>
+      <c r="L11" s="4" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>353</v>
+      </c>
+      <c r="B12" t="s">
+        <v>364</v>
+      </c>
+      <c r="L12" s="4" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>340</v>
+      </c>
+      <c r="B13" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>342</v>
+      </c>
+      <c r="B14" t="s">
         <v>343</v>
       </c>
-      <c r="K4" t="s">
-        <v>320</v>
-      </c>
-      <c r="L4" s="1" t="s">
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>329</v>
+      </c>
+      <c r="B15" t="s">
+        <v>335</v>
+      </c>
+      <c r="L15" s="4" t="s">
+        <v>319</v>
+      </c>
+      <c r="M15" s="5" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B16" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="L16" s="4" t="s">
         <v>318</v>
       </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>311</v>
-      </c>
-      <c r="B5" t="s">
-        <v>342</v>
-      </c>
-      <c r="K5" t="s">
-        <v>324</v>
-      </c>
-      <c r="L5" s="1" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>353</v>
-      </c>
-      <c r="B6" t="s">
-        <v>354</v>
-      </c>
-      <c r="K6" t="s">
-        <v>319</v>
-      </c>
-      <c r="L6" s="1" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>355</v>
-      </c>
-      <c r="B7" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>356</v>
-      </c>
-      <c r="B8" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>357</v>
-      </c>
-      <c r="B9" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>333</v>
-      </c>
-      <c r="B10" t="s">
-        <v>341</v>
-      </c>
-      <c r="K10" t="s">
-        <v>320</v>
-      </c>
-      <c r="L10" s="1" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B11" s="2" t="s">
-        <v>336</v>
-      </c>
-      <c r="K11" t="s">
-        <v>319</v>
-      </c>
-      <c r="L11" s="1" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
+      <c r="M16" s="5" t="s">
         <v>331</v>
       </c>
-      <c r="B14" t="s">
-        <v>340</v>
-      </c>
-      <c r="K14" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>337</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B17" s="2" t="s">
+        <v>371</v>
+      </c>
+      <c r="M17" s="5"/>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>354</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>372</v>
+      </c>
+      <c r="M18" s="5"/>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>327</v>
+      </c>
+      <c r="B19" t="s">
+        <v>334</v>
+      </c>
+      <c r="L19" s="4" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>374</v>
+      </c>
+      <c r="B20" t="s">
+        <v>333</v>
+      </c>
+      <c r="L20" s="4" t="s">
+        <v>319</v>
+      </c>
+      <c r="M20" s="5">
+        <v>1070</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>375</v>
+      </c>
+      <c r="B21" t="s">
+        <v>338</v>
+      </c>
+      <c r="L21" s="4" t="s">
+        <v>318</v>
+      </c>
+      <c r="M21" s="5" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B22" s="1" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>352</v>
+      </c>
+      <c r="B23" t="s">
+        <v>357</v>
+      </c>
+      <c r="L23" s="4" t="s">
+        <v>319</v>
+      </c>
+      <c r="M23" s="5" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B24" s="1" t="s">
         <v>339</v>
       </c>
-      <c r="K17" t="s">
-        <v>320</v>
-      </c>
-      <c r="L17" s="1">
-        <v>1070</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>346</v>
-      </c>
-      <c r="B18" t="s">
-        <v>349</v>
-      </c>
-      <c r="K18" t="s">
+      <c r="L24" s="4" t="s">
+        <v>318</v>
+      </c>
+      <c r="M24" s="5" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>355</v>
+      </c>
+      <c r="B25" t="s">
+        <v>361</v>
+      </c>
+      <c r="L25" s="4" t="s">
         <v>319</v>
       </c>
-      <c r="L18" s="1" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B19" s="2" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>348</v>
-      </c>
-      <c r="B20" t="s">
-        <v>350</v>
-      </c>
-      <c r="K20" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B21" t="s">
-        <v>352</v>
-      </c>
-      <c r="K21" t="s">
+      <c r="M25" s="5" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B26" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="L26" s="4" t="s">
+        <v>318</v>
+      </c>
+      <c r="M26" s="5" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>356</v>
+      </c>
+      <c r="B27" t="s">
+        <v>362</v>
+      </c>
+      <c r="L27" s="4" t="s">
         <v>319</v>
       </c>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B22" s="2" t="s">
-        <v>351</v>
+      <c r="M27" s="5" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B28" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="L28" s="4" t="s">
+        <v>318</v>
+      </c>
+      <c r="M28" s="5" t="s">
+        <v>359</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Satellite Sites.xlsx
+++ b/Satellite Sites.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Daniel\SkyDrive\Ashwin\Visual Studio\Sat\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f2b5f44ce49b671e/Ashwin/Visual Studio/Sat/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435"/>
   </bookViews>
   <sheets>
     <sheet name="USA" sheetId="1" r:id="rId1"/>
@@ -1972,13 +1972,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2261,7 +2262,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E139"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
@@ -3765,8 +3766,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3902,7 +3903,7 @@
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
+      <c r="A15" s="6" t="s">
         <v>329</v>
       </c>
       <c r="B15" t="s">
@@ -3945,7 +3946,7 @@
       <c r="M18" s="5"/>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
+      <c r="A19" s="6" t="s">
         <v>327</v>
       </c>
       <c r="B19" t="s">

--- a/Satellite Sites.xlsx
+++ b/Satellite Sites.xlsx
@@ -1,21 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f2b5f44ce49b671e/Ashwin/Visual Studio/Sat/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="USA" sheetId="1" r:id="rId1"/>
     <sheet name="Canada" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621" iterate="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -2252,7 +2247,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2262,8 +2257,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E139"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3766,8 +3761,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
